--- a/biology/Zoologie/Cryptopimpla/Cryptopimpla.xlsx
+++ b/biology/Zoologie/Cryptopimpla/Cryptopimpla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptopimpla est un genre de guêpes parasitoïdes de la famille des Ichneumonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (5 novembre 2023) :
 Cryptopimpla alpivaga (Strobl, 1902)
 Cryptopimpla amplipennis Townes, 1978
 Cryptopimpla anomala (Holmgren, 1860)
@@ -573,8 +587,43 @@
 Cryptopimpla tertia (Momoi, 1970)
 Cryptopimpla turana (Habermehl, 1917)
 Cryptopimpla zwarti Reynolds Berry &amp; van Noortan Noort, 2016
-Espèces fossiles
-Selon Paleobiology Database en 2023, une seule espèce fossile est référencée[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryptopimpla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée :
 †Cryptopimpla nigripalpis Cameron, 1909</t>
         </is>
       </c>
